--- a/pred_ohlcv/54_21/2019-11-01 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 LAMB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>725119.4924999998</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>785145.6793999998</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>780032.6082999998</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>780022.6082999998</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>748512.6082999998</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>748522.6082999998</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>748522.6082999998</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1166740.4307</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1227882.698291788</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1337510.780191788</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1365524.421393785</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1386744.808018657</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1409569.314018656</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1629434.886318657</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1676113.218218657</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1620629.457318657</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1546780.316618657</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1596470.275118656</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1638167.613018656</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1638167.613018656</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1748441.487318656</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1672389.796818656</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1672399.796818656</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1626322.025018656</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1619156.208018656</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1312214.656744486</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1312224.656744486</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1311237.156744486</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1311512.050044487</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1283186.135444487</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1292307.790993858</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1269875.513393858</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1290077.408193858</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1293952.3655291</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1293992.2366291</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1293992.2366291</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1294034.5615291</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1287995.6906291</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1285874.0331291</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1185874.0331291</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1190843.7417291</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1190433.6327291</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1186433.6327291</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1181954.6648291</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1175646.7019291</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1196985.4481291</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1164135.2341291</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1144772.8944291</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1139711.6883291</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1254020.6191291</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1314829.5574291</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1346029.5574291</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1354412.0942291</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1354412.0942291</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1374610.0413291</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1326880.1787291</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1326014.4826291</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1326014.4826291</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1310846.9360291</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1337340.3712291</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1336348.1861291</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1336348.1861291</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1336348.1861291</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1336348.1861291</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1342537.8760291</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1359842.1004291</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1246536.0305291</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>1316014.3622291</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>1316014.3622291</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>1352573.068453282</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>2378078.135402507</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>2409486.305102507</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>2424771.493396161</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>2517625.385596161</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>2517625.385596161</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>2574615.035096161</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>2666459.097389264</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>2666459.097389264</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>2589239.179689264</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>2589239.179689264</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>2528528.207189264</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>2476406.769389264</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>2745386.902950123</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>3734481.220250123</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>4054490.165015083</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>3472761.336256043</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>3534419.219356043</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>4149250.282732043</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>4351130.246206727</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>4152513.583606727</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>3913338.712406727</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>3825256.682306727</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>3871935.462370805</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>3871935.462370805</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>3834518.022370805</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>3834518.022370805</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>3882656.311770805</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>3891491.374970805</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>3923995.501970805</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>3790055.719918276</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>3722739.580618276</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>3681024.497618276</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>3699680.841418276</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>3699680.841418276</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>3698918.978318276</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>3693543.328418276</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>3605326.531818276</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>3496363.775718276</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>3741160.199018276</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>3658850.271918276</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>3721057.952318276</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>3733425.360918276</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>3566194.366418276</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>3451939.801418276</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>3530477.020618276</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>3668001.095918276</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>3803449.494818276</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>3878110.414118276</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>4080107.563353979</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>4361415.542252935</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>4540541.879952935</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>5074867.351018276</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>5796429.0362023</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>5251986.220360301</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>5022277.071481584</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>4786863.543781583</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>4908278.042081583</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>4986922.460081583</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>5082117.744281583</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>5324400.524381583</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>5223498.367381583</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>5112633.167081583</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>4810718.873364422</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>4906197.494964423</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>5060918.809564422</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>5127501.835813728</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>5263203.959013728</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>5132713.039013728</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>5132844.279013729</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>5045479.415713728</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>4995552.273913728</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>4906983.135513728</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>4692833.402037485</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>4759858.611237485</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>4671618.442637485</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>4574073.695737485</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>4623629.345937485</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>4623629.345937485</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>4599209.105437485</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>4705149.662906461</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>4604699.225106461</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>4583907.444786524</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>4462917.517686524</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>4414795.100086524</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>4424888.989586524</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>4424888.989586524</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>4453008.750686524</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>4442005.078386524</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>4442005.078386524</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>4265700.745286523</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>4353765.292686523</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>4341359.736286523</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>4341359.736286523</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>4348159.567186523</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>4189012.095986523</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>3440020.562863885</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>3459030.373663885</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>3600492.041797539</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>3879578.352897539</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>4159185.973063159</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>4070765.645263159</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>4301272.262963159</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>4224180.730863159</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>4117446.675563158</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>4150885.159346865</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>4099964.987846864</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>4057829.111846864</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>4057829.111846864</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>3956151.759046864</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>3987419.258046864</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>3987419.258046864</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>3950559.109346864</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>3976997.632646864</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>3975392.543546864</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>3996514.012146864</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>4067895.049046864</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>4067795.049046864</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>4055606.732812122</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>4101673.341912122</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>4192445.515312122</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>4363323.132812122</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>4545634.700212122</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>4545634.700212122</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>4472570.662946551</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>4451896.202946551</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>4451896.202946551</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>4459968.321220252</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>4466112.274520252</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>4496580.715933113</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>4815763.865046551</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>6629167.006534613</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>5940604.794370873</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>5650844.891734612</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>5073531.137739987</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>4901573.584039987</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>4683038.436339987</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>4790184.380639988</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>4761613.616639988</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>5158162.350183932</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>5498662.375039988</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>4994959.356259821</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>4847791.630459821</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>4847791.630459821</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>4639945.050459821</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>4695693.995010323</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>4750370.907224873</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>4750370.907224873</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>4641178.427924873</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>4790073.047024873</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>5073375.712824873</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>4885675.723024873</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>4713889.508524873</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>4655647.792409084</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>4536811.912209084</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>4386198.298809084</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>4309081.646009085</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>4096887.876909085</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 LAMB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>725119.4924999998</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>785145.6793999998</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>780032.6082999998</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>780022.6082999998</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>748512.6082999998</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>748522.6082999998</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>748522.6082999998</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1166740.4307</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1227882.698291788</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1337510.780191788</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1386744.808018657</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1629434.886318657</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1676113.218218657</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1620629.457318657</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1546780.316618657</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1596470.275118656</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1638167.613018656</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1638167.613018656</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1748441.487318656</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1672389.796818656</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1672399.796818656</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1626322.025018656</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1619156.208018656</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1312214.656744486</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1312224.656744486</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1311237.156744486</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1311512.050044487</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1283186.135444487</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1292307.790993858</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1269875.513393858</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1290077.408193858</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1293952.3655291</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1293992.2366291</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1293992.2366291</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1294034.5615291</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1287995.6906291</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1285874.0331291</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1185874.0331291</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1190843.7417291</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1190433.6327291</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1186433.6327291</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1181954.6648291</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1175646.7019291</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1196985.4481291</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1164135.2341291</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1144772.8944291</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1144772.8944291</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1144361.4462291</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1144371.4462291</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1144371.4462291</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1140371.4462291</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1140371.4462291</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1140371.4462291</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1139711.6883291</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1117883.5697291</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1265581.4798291</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1254020.6191291</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1313830.6191291</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1290387.1897291</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1306542.9435291</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1336542.9435291</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1314893.1055291</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1314829.5574291</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1342029.5574291</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1346029.5574291</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1354412.0942291</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1354412.0942291</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1374610.0413291</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1326880.1787291</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1326014.4826291</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1326014.4826291</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1310846.9360291</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1337340.3712291</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1336348.1861291</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1336348.1861291</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1336348.1861291</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1336348.1861291</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1342537.8760291</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1359842.1004291</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1246536.0305291</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1213991.4050291</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>1199178.4026291</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>1199178.4026291</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>1212575.3887291</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>1211735.3512291</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>1211735.3512291</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>1316735.3512291</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>1300370.1069291</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1307118.8547291</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>1307118.8547291</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>2378078.135402507</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>2409486.305102507</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>2424771.493396161</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>2517625.385596161</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>2517625.385596161</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>2574615.035096161</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>2666459.097389264</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>2666459.097389264</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>2589239.179689264</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>2589239.179689264</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>2528528.207189264</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>2476406.769389264</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>2745386.902950123</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>3734481.220250123</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>4054490.165015083</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>3472761.336256043</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>3534419.219356043</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>4149250.282732043</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>4351130.246206727</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>4152513.583606727</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>3913338.712406727</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>3825256.682306727</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>3871935.462370805</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>3871935.462370805</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>3834518.022370805</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>3834518.022370805</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>3882656.311770805</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>3891491.374970805</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>3923995.501970805</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>3790055.719918276</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>3722739.580618276</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>3681024.497618276</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>3699680.841418276</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>3699680.841418276</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>3698918.978318276</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>3693543.328418276</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>3605326.531818276</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>3496363.775718276</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>3741160.199018276</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>3658850.271918276</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>3721057.952318276</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>3733425.360918276</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>3566194.366418276</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>3451939.801418276</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>3530477.020618276</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>3668001.095918276</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>3803449.494818276</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>3878110.414118276</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>4080107.563353979</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>4361415.542252935</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>4540541.879952935</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>5074867.351018276</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>5796429.0362023</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>5251986.220360301</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>5022277.071481584</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>4786863.543781583</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>4908278.042081583</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>4986922.460081583</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>5082117.744281583</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>5324400.524381583</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>5223498.367381583</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>5112633.167081583</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>4810718.873364422</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>4906197.494964423</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>5060918.809564422</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>5127501.835813728</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>5263203.959013728</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>5132713.039013728</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>5132844.279013729</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>5045479.415713728</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>4995552.273913728</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>4906983.135513728</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>4692833.402037485</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>4759858.611237485</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>4671618.442637485</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>4574073.695737485</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>4623629.345937485</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>4623629.345937485</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>4599209.105437485</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>4705149.662906461</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>4604699.225106461</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>4583907.444786524</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>4462917.517686524</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>4414795.100086524</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>4424888.989586524</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>4424888.989586524</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>4453008.750686524</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>4442005.078386524</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>4442005.078386524</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>4265700.745286523</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>4353765.292686523</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>4341359.736286523</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>4341359.736286523</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>4348159.567186523</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>4189012.095986523</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>3440020.562863885</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>3459030.373663885</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>3600492.041797539</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>3879578.352897539</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>4159185.973063159</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>4070765.645263159</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>4301272.262963159</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>4224180.730863159</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>4117446.675563158</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>4150885.159346865</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>4099964.987846864</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>4057829.111846864</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>4057829.111846864</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>3956151.759046864</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>3987419.258046864</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>3987419.258046864</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>3950559.109346864</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>3976997.632646864</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>3975392.543546864</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>3996514.012146864</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>4067895.049046864</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>4067795.049046864</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>4055606.732812122</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>4101673.341912122</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>4192445.515312122</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>4363323.132812122</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>4545634.700212122</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>4545634.700212122</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>4472570.662946551</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>4451896.202946551</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>4451896.202946551</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>4459968.321220252</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>4466112.274520252</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>4496580.715933113</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>4815763.865046551</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>5527845.360400074</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>6614426.646554391</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>6614426.646554391</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>7413049.13358453</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>6629167.006534613</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>5940604.794370873</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>5650844.891734612</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>4901573.584039987</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>4761613.616639988</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>5296206.780383932</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>5158162.350183932</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>5498662.375039988</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>4994959.356259821</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>4847791.630459821</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>4847791.630459821</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>4639945.050459821</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>4695693.995010323</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>4750370.907224873</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>4750370.907224873</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>4641178.427924873</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>4790073.047024873</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>5073375.712824873</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>4885675.723024873</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>4713889.508524873</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>4655647.792409084</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>4536811.912209084</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>4162278.477309084</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>4386198.298809084</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>4481027.347409084</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>4309081.646009085</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>4096887.876909085</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>4160094.680909085</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>4927393.949078656</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>4918222.042978656</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>4918222.042978656</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>4917722.042978656</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
